--- a/docs/企业微信数据需求.xlsx
+++ b/docs/企业微信数据需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>业务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,38 @@
   </si>
   <si>
     <t>硬件/负载/网络线路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺设备的详情和cpu和内存的负载数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDC出口和IDC专线的列表以及网络设备的吞吐量（折现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个饼图的数据没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先改成资产管理的饼图（服务器数量、网络设备数量、服务器数量（租户top10））</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少（先空着）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：先实用openId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +236,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,7 +258,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,22 +322,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -562,24 +626,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="3" max="3" width="40.25" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.625" customWidth="1"/>
-    <col min="7" max="7" width="38.625" customWidth="1"/>
+    <col min="3" max="3" width="40.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="51" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -599,11 +664,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -613,9 +678,9 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8"/>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2"/>
@@ -625,9 +690,9 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2"/>
@@ -637,8 +702,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
+    <row r="6" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -648,9 +713,12 @@
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
+      <c r="H6" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
@@ -661,85 +729,100 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="8"/>
+    <row r="8" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="8"/>
-      <c r="C10" s="5" t="s">
+      <c r="H9" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
-      <c r="C11" s="5" t="s">
+      <c r="D10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="5" t="s">
+      <c r="D11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
+      <c r="D12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
+      <c r="H12" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
       <c r="C13" s="4"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -749,9 +832,9 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="8"/>
-      <c r="C15" s="4" t="s">
+    <row r="15" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -763,9 +846,9 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="8"/>
-      <c r="C16" s="4" t="s">
+    <row r="16" spans="2:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -777,9 +860,9 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="8"/>
-      <c r="C17" s="4" t="s">
+    <row r="17" spans="2:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="2"/>
@@ -789,19 +872,19 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="8"/>
+    <row r="18" spans="2:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="2:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="2"/>
@@ -809,64 +892,70 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="8"/>
-      <c r="C20" s="4" t="s">
+    <row r="20" spans="2:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11"/>
+      <c r="C20" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="8"/>
-      <c r="C21" s="4" t="s">
+    <row r="21" spans="2:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
+    <row r="22" spans="2:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="7" t="s">
+      <c r="F22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="2:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="7" t="s">
+    <row r="25" spans="2:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C26" s="7" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C27" s="7" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C28" s="7" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="1" t="s">
